--- a/biology/Zoologie/Guit-guit_céruléen/Guit-guit_céruléen.xlsx
+++ b/biology/Zoologie/Guit-guit_céruléen/Guit-guit_céruléen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guit-guit_c%C3%A9rul%C3%A9en</t>
+          <t>Guit-guit_céruléen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanerpes caeruleus
 Le Guit-guit céruléen (Cyanerpes caeruleus), aussi appelé Guit-guit à pattes jaunes ou Sucrier pourpre, est une espèce d'oiseau appartenant à la famille des Thraupidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guit-guit_c%C3%A9rul%C3%A9en</t>
+          <t>Guit-guit_céruléen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 10,5 cm de longueur. Il présente un net dimorphisme sexuel.
 Le mâle arbore un plumage bleu vif avec le bec incurvé, un masque, une petite bavette, les ailes et la queue noirs. Les pattes sont jaune cire plus ou moins foncé selon les individus tandis que les ongles sont noirs.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guit-guit_c%C3%A9rul%C3%A9en</t>
+          <t>Guit-guit_céruléen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de guit-guit peuple tout le nord de l'Amérique du Sud et se rencontre en Bolivie, au Brésil, au Colombie, en Guyana, en Guyane, au Panama, au Pérou, au Suriname, à Trinité-et-Tobago, au Venezuela, et en Équateur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de guit-guit peuple tout le nord de l'Amérique du Sud et se rencontre en Bolivie, au Brésil, au Colombie, en Guyana, en Guyane, au Panama, au Pérou, au Suriname, à Trinité-et-Tobago, au Venezuela, et en Équateur.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Guit-guit_c%C3%A9rul%C3%A9en</t>
+          <t>Guit-guit_céruléen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de nectar et de petits insectes.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Guit-guit_c%C3%A9rul%C3%A9en</t>
+          <t>Guit-guit_céruléen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cyanerpes caeruleus (Linnaeus, 1758)[2].
-Liste des sous-espèces
-Selon ITIS      (19 mai 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cyanerpes caeruleus (Linnaeus, 1758).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Guit-guit_céruléen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guit-guit_c%C3%A9rul%C3%A9en</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 mai 2024) :
 Cyanerpes caeruleus caeruleus (Linnaeus, 1758)
 Cyanerpes caeruleus chocoanus Hellmayr, 1920
 Cyanerpes caeruleus hellmayri Gyldenstolpe, 1945
